--- a/public/files/template/inventory/kibf.xlsx
+++ b/public/files/template/inventory/kibf.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -241,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -311,17 +311,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -404,96 +393,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -508,11 +488,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,6 +700,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -749,6 +752,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,7 +924,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,385 +947,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="str">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="str">
         <f>'[1]KIB A'!B3</f>
         <v>Provinsi</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="str">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="str">
         <f>'[1]KIB A'!B4</f>
         <v>Kab./Kota</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="str">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="str">
         <f>'[1]KIB A'!B5</f>
         <v>Bidang</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="str">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="str">
         <f>'[1]KIB A'!B6</f>
         <v>Unit Organisasi</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="str">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="str">
         <f>'[1]KIB A'!B7</f>
         <v>Sub Unit Organisasi</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="str">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="str">
         <f>'[1]KIB A'!B8</f>
         <v>U P B</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="str">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="str">
         <f>'[1]KIB A'!B9</f>
         <v xml:space="preserve">NO. KODE LOKASI </v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="28" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="28" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="28" t="s">
+      <c r="L12" s="31"/>
+      <c r="M12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="28" t="s">
+      <c r="O12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="28" t="s">
+      <c r="Q12" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="4">
@@ -1349,72 +1369,72 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="24"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="35" t="s">
         <v>30</v>
       </c>
     </row>
